--- a/Submissions/M1/M-1.3 Product Backlog.xlsx
+++ b/Submissions/M1/M-1.3 Product Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\Influencer-Engagement-Tracker\Submissions\M1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEDB94E-C4A3-449C-A355-2FA8AAFFBE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F051F-1BC6-46CA-BCC9-BAD3EE42DE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Product Backlog – Data Analysis Project</t>
   </si>
@@ -98,9 +98,6 @@
     <t>P1</t>
   </si>
   <si>
-    <t>[Team Member]</t>
-  </si>
-  <si>
     <t>DQ-02</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>Data Visualization</t>
-  </si>
-  <si>
-    <t>[Team Member</t>
   </si>
   <si>
     <r>
@@ -995,7 +989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,17 +1021,17 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1064,78 +1058,70 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -1143,65 +1129,61 @@
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1210,57 +1192,57 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1269,43 +1251,43 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1314,31 +1296,31 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F29" s="14"/>
     </row>
